--- a/public/template-excel/template-import-data-master-mahasiswa.xlsx
+++ b/public/template-excel/template-import-data-master-mahasiswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramadhanabdulaziz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramadhanabdulaziz/Documents/Magang/talentern/public/template-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C628A-12DD-4B4B-8E3C-A295A73A3CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E97565-45FD-9842-8718-7818F80CB4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{7B0C2EDB-FC3F-BD4E-B209-BBC973417236}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NIM</t>
   </si>
@@ -65,13 +65,31 @@
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Ramadhan abdul aziz</t>
+  </si>
+  <si>
+    <t>08213123112</t>
+  </si>
+  <si>
+    <t>bojongsoang</t>
+  </si>
+  <si>
+    <t>63267236</t>
+  </si>
+  <si>
+    <t>ramadhan33@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,13 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -102,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,11 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,18 +150,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -170,10 +171,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -185,15 +182,35 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,404 +525,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C90152-BA34-4A40-8EDB-20A38A42D2F2}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="8"/>
-    <col min="7" max="7" width="32.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="13" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="32.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="10" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="30" style="13" customWidth="1"/>
     <col min="10" max="10" width="48.5" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="D2" s="2">
+        <v>477</v>
+      </c>
+      <c r="E2" s="2">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n0GcEc4emngcb49GOUR50A8AgoRL3pOmDPt4AEELCNOPyc1yi9E7nhlWIoCDHCH6VjMJnXsO3bb4iUZvOOX9QA==" saltValue="CwldbW+Wxt/b9l+lhF0G/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WpLqRPSvoEVBxcblkNZLA58QoX6jzLJ7L3UOSzmt5kFTyemrOGHAozJdAy4oG2tvgSk4GIQ5LF3Y7GQ2izjrRQ==" saltValue="krzX1lBpMgGTN07AUlPtRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{61D5BD25-288C-CB47-AB23-A52E78229C5E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>